--- a/doc/report from Vivado/Timing & Utilization Report.xlsx
+++ b/doc/report from Vivado/Timing & Utilization Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>N</t>
   </si>
@@ -45,12 +45,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,21 +60,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,98 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,28 +202,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -219,187 +212,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,21 +403,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,7 +425,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,18 +449,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,159 +478,176 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -979,10 +972,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1026,8 +1019,6 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
       <c r="G2">
         <v>379</v>
       </c>
@@ -1468,9 +1459,357 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68">
-        <v>67</v>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>22</v>
+      </c>
+      <c r="B96">
+        <v>0.318</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>66</v>
+      </c>
+      <c r="B140">
+        <v>0.184</v>
+      </c>
+      <c r="C140">
+        <v>12</v>
+      </c>
+      <c r="E140">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
